--- a/3부.스타트업 업무 자동화 - 9장.회계 업무 자동화/hometax/hometax_세금계산서발행.xlsx
+++ b/3부.스타트업 업무 자동화 - 9장.회계 업무 자동화/hometax/hometax_세금계산서발행.xlsx
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -222,7 +222,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
@@ -230,8 +230,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
